--- a/Wavefolder/Assembly/Wavefolder THT.xlsx
+++ b/Wavefolder/Assembly/Wavefolder THT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Designator</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>A-2939</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/amphenol-icc-fci/68602-110HLF/2023310</t>
   </si>
   <si>
     <t>J3, J4</t>
@@ -116,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -131,6 +134,11 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -166,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -186,15 +194,18 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -457,109 +468,112 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4">
         <v>1.0</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>2.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>3.0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>4.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F7"/>
-    <hyperlink r:id="rId2" ref="G7"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F7"/>
+    <hyperlink r:id="rId3" ref="G7"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Wavefolder/Assembly/Wavefolder THT.xlsx
+++ b/Wavefolder/Assembly/Wavefolder THT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Designator</t>
   </si>
@@ -49,18 +49,6 @@
     <t>https://www.digikey.com/en/products/detail/amphenol-icc-fci/68602-110HLF/2023310</t>
   </si>
   <si>
-    <t>J3, J4</t>
-  </si>
-  <si>
-    <t>Bus i/o</t>
-  </si>
-  <si>
-    <t>1x04_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>A-5776</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -83,18 +71,6 @@
   </si>
   <si>
     <t>A-5408</t>
-  </si>
-  <si>
-    <t>D13,D14,D1</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D_DO-35</t>
-  </si>
-  <si>
-    <t>A-157</t>
   </si>
   <si>
     <t>J1, J2, J5, J6</t>
@@ -474,23 +450,21 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -500,79 +474,44 @@
         <v>17</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F7"/>
-    <hyperlink r:id="rId3" ref="G7"/>
+    <hyperlink r:id="rId2" ref="F5"/>
+    <hyperlink r:id="rId3" ref="G5"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
